--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3889.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3889.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.144750969216662</v>
+        <v>1.773749232292175</v>
       </c>
       <c r="B1">
-        <v>2.232024784844847</v>
+        <v>2.538293838500977</v>
       </c>
       <c r="C1">
-        <v>2.227344305340594</v>
+        <v>4.78486967086792</v>
       </c>
       <c r="D1">
-        <v>2.778612068194508</v>
+        <v>4.142022132873535</v>
       </c>
       <c r="E1">
-        <v>4.136424115866911</v>
+        <v>0.9753129482269287</v>
       </c>
     </row>
   </sheetData>
